--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3758591.33073645</v>
+        <v>3751574.315844738</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>117.3399053404217</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>163.0915657041714</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -709,22 +709,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>62.33263748886721</v>
       </c>
       <c r="G4" t="n">
-        <v>81.34678359874783</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>360.3422642852981</v>
       </c>
       <c r="G5" t="n">
-        <v>285.8365618181751</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1068,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>17.50309879408372</v>
       </c>
       <c r="U7" t="n">
-        <v>216.6993815150878</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.4106407312797</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>139.3243393802458</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>152.6509495310449</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>27.5530916822186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>113.3804539445441</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>203.9274182533063</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>29.09049841395925</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>33.10275717377967</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>67.6152418885234</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>203.8435192151922</v>
       </c>
     </row>
     <row r="23">
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>162.0956900645632</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>130.9991094958159</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2566,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896934</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113178</v>
+        <v>305.2872491113193</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274086</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338503</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986279</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633777</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>49.72623584801537</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836034</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890373</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633777</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583894</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985775</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>89.5069086163015</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>122.6519788371604</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896916</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113178</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274086</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986279</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>48.03761305467783</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.4192454642721</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527405</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>89.73352578910227</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>33.35146980185922</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3717,19 +3717,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>15.86956629450698</v>
+        <v>169.7438101404427</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>34.56420282848885</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>61.65635406021892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>64.34190763938454</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1154.883827626212</v>
+        <v>2255.520561484594</v>
       </c>
       <c r="C2" t="n">
-        <v>1154.883827626212</v>
+        <v>1886.558044544182</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1528.292345937431</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1528.349585887292</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>1154.883827626212</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y2" t="n">
-        <v>1154.883827626212</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="3">
@@ -4409,43 +4409,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.8207968750362</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="C4" t="n">
-        <v>331.8846139471293</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="D4" t="n">
-        <v>181.7679745347936</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="E4" t="n">
-        <v>181.7679745347936</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="F4" t="n">
-        <v>181.7679745347936</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750362</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V4" t="n">
-        <v>500.8207968750362</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W4" t="n">
-        <v>500.8207968750362</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X4" t="n">
-        <v>500.8207968750362</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.8207968750362</v>
+        <v>579.9823256406185</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1111.918385033061</v>
+        <v>1702.337823625994</v>
       </c>
       <c r="C5" t="n">
-        <v>1111.918385033061</v>
+        <v>1702.337823625994</v>
       </c>
       <c r="D5" t="n">
-        <v>753.6526864263105</v>
+        <v>1702.337823625994</v>
       </c>
       <c r="E5" t="n">
-        <v>753.6526864263105</v>
+        <v>1316.54957102775</v>
       </c>
       <c r="F5" t="n">
-        <v>342.666781636703</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224075</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.752638628377</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1871.983983358263</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1498.518225097183</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1498.518225097183</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="6">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>681.0321672882544</v>
       </c>
       <c r="U7" t="n">
-        <v>281.9325327183818</v>
+        <v>681.0321672882544</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>426.3476790823676</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864.6405432696254</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4837,19 +4837,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2325.211257923243</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>1994.148370579673</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1641.379715309559</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1641.379715309559</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1251.240383333747</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>552.1509199010035</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>552.1509199010035</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D10" t="n">
-        <v>552.1509199010035</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="E10" t="n">
-        <v>404.2378263186104</v>
+        <v>400.6823320653273</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>253.7923845674169</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
         <v>99.59950625323012</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>552.1509199010035</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
@@ -5038,55 +5038,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L12" t="n">
-        <v>1024.771599890051</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>530.7956248556235</v>
+        <v>509.2863307027309</v>
       </c>
       <c r="C13" t="n">
-        <v>361.8594419277166</v>
+        <v>509.2863307027309</v>
       </c>
       <c r="D13" t="n">
-        <v>211.7428025153809</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E13" t="n">
-        <v>211.7428025153809</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V13" t="n">
-        <v>933.2366688293934</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W13" t="n">
-        <v>933.2366688293934</v>
+        <v>958.0684607442784</v>
       </c>
       <c r="X13" t="n">
-        <v>933.2366688293934</v>
+        <v>730.078909846261</v>
       </c>
       <c r="Y13" t="n">
-        <v>712.4440896858632</v>
+        <v>509.2863307027309</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5293,37 +5293,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>462.7283310300493</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>709.4934589365134</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.546326320615</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>444.8933943850831</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C16" t="n">
-        <v>444.8933943850831</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D16" t="n">
-        <v>294.7767549727473</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E16" t="n">
-        <v>294.7767549727473</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>294.7767549727473</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>126.6014332925679</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286132</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>665.6859735286132</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y16" t="n">
-        <v>444.8933943850831</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823791</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514088</v>
@@ -5536,31 +5536,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701562</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766204</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.546326320615</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183167</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>844.1942894808744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>1354.404038661365</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>1354.404038661365</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>1064.986868624404</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>1064.986868624404</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>844.1942894808744</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5740,19 +5740,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514085</v>
@@ -5764,37 +5764,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>378.1030765138935</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>624.8682044203576</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>932.1883377003194</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557903</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.499100520942</v>
+        <v>531.1091870201135</v>
       </c>
       <c r="X22" t="n">
-        <v>1141.200876391121</v>
+        <v>303.1196361220962</v>
       </c>
       <c r="Y22" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5989,10 +5989,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6013,28 +6013,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701562</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.9563154684962</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="C25" t="n">
-        <v>392.0201325405893</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028587</v>
@@ -6174,25 +6174,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U25" t="n">
-        <v>874.9271131227924</v>
+        <v>1024.188136768045</v>
       </c>
       <c r="V25" t="n">
-        <v>874.9271131227924</v>
+        <v>1024.188136768045</v>
       </c>
       <c r="W25" t="n">
-        <v>874.9271131227924</v>
+        <v>734.7709667310845</v>
       </c>
       <c r="X25" t="n">
-        <v>742.6047802987359</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.6047802987359</v>
+        <v>506.7814158330672</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155911</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805472</v>
+        <v>488.1932370805486</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823807</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514104</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207832</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014296</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701563</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766205</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6341,7 +6341,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>634.6737565393097</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>465.7375736114027</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>315.6209341990668</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>315.6209341990668</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>315.6209341990668</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>147.4456125188873</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473454</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473454</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V28" t="n">
-        <v>1044.311772267567</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W28" t="n">
-        <v>1044.311772267567</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X28" t="n">
-        <v>816.3222213695495</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>816.3222213695495</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6460,55 +6460,55 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701562</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766203</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6578,7 +6578,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
         <v>1571.258395043133</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>563.7235151749155</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>563.7235151749155</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>563.7235151749155</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>415.8104215925223</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925223</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123428</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1164.055751909233</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U31" t="n">
-        <v>874.9271131227907</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V31" t="n">
-        <v>874.9271131227907</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W31" t="n">
-        <v>784.5160943184458</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X31" t="n">
-        <v>784.5160943184458</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>563.7235151749155</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805472</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701562</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4085.456965641976</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3916.520782714069</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3916.520782714069</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3867.997941244697</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3721.107993746787</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746787</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.68998529473</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916678</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380588</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625199</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636328</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403511</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>4749.779469576119</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>4749.779469576119</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>4749.779469576119</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>4495.094981370233</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>4495.094981370233</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>4267.105430472216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>4267.105430472216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6925,31 +6925,31 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
@@ -6961,28 +6961,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250805</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095318</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.474758001782</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281743</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>3973.880983602627</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>4253.421048821324</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>4773.721670557071</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>826.1356072130309</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>657.199424285124</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
         <v>507.4972331799365</v>
@@ -7122,25 +7122,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T37" t="n">
-        <v>1297.201242080231</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U37" t="n">
-        <v>1297.201242080231</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V37" t="n">
-        <v>1297.201242080231</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W37" t="n">
-        <v>1007.784072043271</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="X37" t="n">
-        <v>1007.784072043271</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>1007.784072043271</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701562</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>1088.787142923176</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1396.107276203137</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1725.96990386717</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2005.509969085867</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3907.603135363462</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>3907.603135363462</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>3757.486495951126</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>4549.859459491672</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4326.074044281178</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>4326.074044281178</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V40" t="n">
-        <v>4310.044179337232</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>4310.044179337232</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>4310.044179337232</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>4089.251600193702</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>709.4934589365143</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3644.185369519404</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C43" t="n">
-        <v>3644.185369519404</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D43" t="n">
-        <v>3494.068730107068</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E43" t="n">
-        <v>3494.068730107068</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F43" t="n">
-        <v>3494.068730107068</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G43" t="n">
-        <v>3494.068730107068</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H43" t="n">
-        <v>3494.068730107068</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>4637.069157803799</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U43" t="n">
-        <v>4637.069157803799</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>4382.384669597912</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>4092.967499560951</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>3864.977948662934</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y43" t="n">
-        <v>3644.185369519404</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="44">
@@ -7627,40 +7627,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7669,28 +7669,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7715,37 +7715,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1646.274692278279</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2315.738453580939</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.9563154684962</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C46" t="n">
-        <v>392.0201325405893</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,10 +7824,10 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
         <v>1387.841167119728</v>
@@ -7836,22 +7836,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1325.562021604355</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U46" t="n">
-        <v>1036.433382817913</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V46" t="n">
-        <v>781.7488946120263</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W46" t="n">
-        <v>781.7488946120263</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X46" t="n">
-        <v>781.7488946120263</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y46" t="n">
-        <v>560.9563154684962</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,22 +8768,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>369.089388049373</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>52.49733361305221</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>176.7176547498442</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>306.1147370139961</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,22 +9245,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>423.3376789165111</v>
       </c>
       <c r="O18" t="n">
-        <v>306.1147370139954</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>91.23759968302028</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,16 +9491,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445216</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,16 +9728,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>306.1147370139952</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445216</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720757</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,16 +9965,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>306.1147370139952</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445216</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>295.377351057127</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10442,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>306.1147370139954</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445216</v>
@@ -10664,25 +10664,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N36" t="n">
-        <v>180.0237016735864</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>295.3773510571265</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>50.62661940943661</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>15.83804904622903</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>32.04059407838717</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>82.59558008328469</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>119.8233299535769</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>79.43092547709092</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>253.1345952247977</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>158.0944135005138</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>14.74113413690259</v>
       </c>
     </row>
     <row r="23">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>124.1416623340141</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>94.71054589322122</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>99.18759251952088</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583894</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985775</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365911</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836034</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>197.0160897202896</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>103.0576765518767</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>98.39634959189146</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633777</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836034</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583894</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985775</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>131.814035269287</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871779</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>236.268077029321</v>
+        <v>82.39383318338528</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>75.85504263578315</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,13 +26076,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>159.8912069981703</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>154.2427457127102</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>671878.3395195369</v>
+        <v>671878.3395195371</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>671878.3395195368</v>
+        <v>671878.3395195369</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>671878.3395195371</v>
+        <v>671878.3395195369</v>
       </c>
     </row>
     <row r="16">
@@ -26322,37 +26322,37 @@
         <v>738937.5928778545</v>
       </c>
       <c r="E2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.307527876</v>
       </c>
       <c r="F2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.3075278755</v>
       </c>
       <c r="G2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="H2" t="n">
         <v>703852.3075278759</v>
       </c>
       <c r="I2" t="n">
+        <v>703852.3075278763</v>
+      </c>
+      <c r="J2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="K2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="L2" t="n">
         <v>703852.3075278759</v>
       </c>
-      <c r="J2" t="n">
-        <v>703852.3075278759</v>
-      </c>
-      <c r="K2" t="n">
-        <v>703852.307527876</v>
-      </c>
-      <c r="L2" t="n">
-        <v>703852.307527876</v>
-      </c>
       <c r="M2" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278762</v>
       </c>
       <c r="N2" t="n">
         <v>703852.307527876</v>
       </c>
       <c r="O2" t="n">
-        <v>703852.3075278763</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="P2" t="n">
         <v>703852.3075278759</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007525</v>
+        <v>7916.731656007442</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007516</v>
+        <v>7916.731656007414</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007436</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007525</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007305</v>
+        <v>7916.731656007401</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007447</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007373</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007431</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007414</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.73165600748</v>
       </c>
     </row>
     <row r="5">
@@ -26478,28 +26478,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871665</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-81806.41311602003</v>
+        <v>-81806.41311602</v>
       </c>
       <c r="C6" t="n">
         <v>508161.4660985245</v>
       </c>
       <c r="D6" t="n">
-        <v>508161.4660985243</v>
+        <v>508161.4660985242</v>
       </c>
       <c r="E6" t="n">
-        <v>78788.21344625545</v>
+        <v>77813.62218653387</v>
       </c>
       <c r="F6" t="n">
-        <v>603948.2499231518</v>
+        <v>602973.6586634298</v>
       </c>
       <c r="G6" t="n">
-        <v>603948.2499231518</v>
+        <v>602973.6586634304</v>
       </c>
       <c r="H6" t="n">
-        <v>603948.2499231518</v>
+        <v>602973.6586634301</v>
       </c>
       <c r="I6" t="n">
-        <v>603948.2499231518</v>
+        <v>602973.6586634306</v>
       </c>
       <c r="J6" t="n">
-        <v>427525.0307305589</v>
+        <v>426550.4394708374</v>
       </c>
       <c r="K6" t="n">
-        <v>603948.2499231518</v>
+        <v>602973.65866343</v>
       </c>
       <c r="L6" t="n">
-        <v>603948.2499231522</v>
+        <v>602973.6586634301</v>
       </c>
       <c r="M6" t="n">
-        <v>469147.2346893148</v>
+        <v>468172.6434295931</v>
       </c>
       <c r="N6" t="n">
-        <v>603948.2499231519</v>
+        <v>602973.6586634303</v>
       </c>
       <c r="O6" t="n">
-        <v>603948.2499231525</v>
+        <v>602973.6586634303</v>
       </c>
       <c r="P6" t="n">
-        <v>603948.2499231518</v>
+        <v>602973.6586634303</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26724,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26740,16 +26740,16 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541004</v>
@@ -26764,7 +26764,7 @@
         <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541004</v>
@@ -26776,10 +26776,10 @@
         <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26813,22 +26813,22 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="O4" t="n">
         <v>1215.213643253574</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1215.213643253574</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1215.213643253574</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1215.213643253574</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1215.213643253574</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26937,10 +26937,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>3.69482222595252e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545562</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>237.3431362802612</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>218.8388043680904</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>83.08841053406402</v>
       </c>
       <c r="G4" t="n">
-        <v>85.96301866030308</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>46.53378145641335</v>
       </c>
       <c r="G5" t="n">
-        <v>127.9476082026198</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>207.5320066640006</v>
       </c>
       <c r="U7" t="n">
-        <v>69.58249272688991</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.3232009322009</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27909,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>111.8998281280435</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>14.658852728006</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>191.0315616698762</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="I14" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,16 +28377,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29289,13 +29289,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.17645385159487e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,22 +29325,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29754,22 +29754,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.868909745143372e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,22 +29799,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>618.3470930053974</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>334.8610358541604</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377835</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>588.4784392551043</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O18" t="n">
-        <v>588.4784392551036</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
         <v>88.01303278507416</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>241.8130382709596</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560244</v>
@@ -36211,16 +36211,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
@@ -36448,16 +36448,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>639.3093104120081</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415099</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005179</v>
@@ -36685,16 +36685,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>639.3093104120081</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556543</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187466</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>577.7410532982352</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556542</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187465</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N32" t="n">
         <v>803.580930408112</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005179</v>
@@ -37162,13 +37162,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>588.4784392551036</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556543</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187466</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N36" t="n">
-        <v>513.2182750715994</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
         <v>88.01303278507416</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N38" t="n">
         <v>803.580930408112</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>544.6350560131509</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504664</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>299.8843243654609</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>222.9314639777537</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3751574.315844738</v>
+        <v>3756513.57869377</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>4.977754783587573</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>17.50309879408372</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.4106407312797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1150,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>61.63452494710979</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>152.6509495310449</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>30.54110646053094</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>122.6238729027264</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.9274182533063</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,7 +1624,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274071</v>
@@ -1660,7 +1660,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>118.4898845065123</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>114.7616571968942</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
-        <v>203.8435192151922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2478,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>36.31437750815365</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>162.0956900645632</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113193</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2608,10 +2608,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498011</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>115.5269768002181</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>122.6519788371604</v>
+        <v>173.9898110906274</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002183</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3480,7 +3480,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>33.35146980185922</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>203.8435192151922</v>
       </c>
     </row>
     <row r="38">
@@ -3714,13 +3714,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>169.7438101404427</v>
+        <v>172.7067178467371</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>64.34190763938454</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4433,19 +4433,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426.3476790823676</v>
+        <v>216.7193895227713</v>
       </c>
       <c r="C7" t="n">
-        <v>426.3476790823676</v>
+        <v>216.7193895227713</v>
       </c>
       <c r="D7" t="n">
-        <v>426.3476790823676</v>
+        <v>216.7193895227713</v>
       </c>
       <c r="E7" t="n">
-        <v>426.3476790823676</v>
+        <v>216.7193895227713</v>
       </c>
       <c r="F7" t="n">
-        <v>426.3476790823676</v>
+        <v>216.7193895227713</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>216.7193895227713</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>58.97101695530139</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>58.97101695530139</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>681.0321672882544</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U7" t="n">
-        <v>681.0321672882544</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="V7" t="n">
-        <v>426.3476790823676</v>
+        <v>216.7193895227713</v>
       </c>
       <c r="W7" t="n">
-        <v>426.3476790823676</v>
+        <v>216.7193895227713</v>
       </c>
       <c r="X7" t="n">
-        <v>426.3476790823676</v>
+        <v>216.7193895227713</v>
       </c>
       <c r="Y7" t="n">
-        <v>426.3476790823676</v>
+        <v>216.7193895227713</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2323.103882821189</v>
+        <v>1689.203741822951</v>
       </c>
       <c r="C8" t="n">
-        <v>1954.141365880777</v>
+        <v>1689.203741822951</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>1330.938043216201</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>945.1497906179566</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>534.1638858283491</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>116.2000777265359</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="Y8" t="n">
-        <v>2465.942913862886</v>
+        <v>2075.803581887073</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.712065060056</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.712065060056</v>
       </c>
       <c r="D10" t="n">
-        <v>548.5954256477204</v>
+        <v>548.5954256477203</v>
       </c>
       <c r="E10" t="n">
-        <v>400.6823320653273</v>
+        <v>400.6823320653272</v>
       </c>
       <c r="F10" t="n">
-        <v>253.7923845674169</v>
+        <v>253.7923845674168</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>84.79258430574922</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>84.79258430574922</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>84.79258430574922</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.712065060056</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.712065060056</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.712065060056</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.712065060056</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.712065060056</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.712065060056</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.712065060056</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.712065060056</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.712065060056</v>
       </c>
     </row>
     <row r="11">
@@ -5020,34 +5020,34 @@
         <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805484</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515098</v>
@@ -5083,10 +5083,10 @@
         <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5120,19 +5120,19 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>901.6749225845922</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977054</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>509.2863307027309</v>
+        <v>390.0157722697346</v>
       </c>
       <c r="C13" t="n">
-        <v>509.2863307027309</v>
+        <v>221.0795893418277</v>
       </c>
       <c r="D13" t="n">
-        <v>359.1696912903951</v>
+        <v>221.0795893418277</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903951</v>
+        <v>221.0795893418277</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>221.0795893418277</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028589</v>
@@ -5205,7 +5205,7 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471194</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V13" t="n">
-        <v>1164.055751909234</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W13" t="n">
-        <v>958.0684607442784</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="X13" t="n">
-        <v>730.078909846261</v>
+        <v>792.4568162435045</v>
       </c>
       <c r="Y13" t="n">
-        <v>509.2863307027309</v>
+        <v>571.6642370999743</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,19 +5278,19 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643324</v>
@@ -5308,22 +5308,22 @@
         <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028589</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>839.1822777101255</v>
       </c>
       <c r="X16" t="n">
-        <v>318.009670603816</v>
+        <v>611.1927268121082</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028589</v>
+        <v>390.4001476685781</v>
       </c>
     </row>
     <row r="17">
@@ -5512,22 +5512,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643324</v>
@@ -5536,10 +5536,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231265</v>
@@ -5591,19 +5591,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341676</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
         <v>2051.878056918008</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471194</v>
@@ -5706,19 +5706,19 @@
         <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5746,16 +5746,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5776,28 +5776,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,25 +5819,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471194</v>
@@ -5943,19 +5943,19 @@
         <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.210845262961</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>820.5263570570741</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>531.1091870201135</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
-        <v>303.1196361220962</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514095</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6010,7 +6010,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126483</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>506.7814158330672</v>
+        <v>133.8982808624613</v>
       </c>
       <c r="C25" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D25" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799365</v>
@@ -6180,19 +6180,19 @@
         <v>1187.921157035281</v>
       </c>
       <c r="U25" t="n">
-        <v>1024.188136768045</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="V25" t="n">
-        <v>1024.188136768045</v>
+        <v>644.108030042952</v>
       </c>
       <c r="W25" t="n">
-        <v>734.7709667310845</v>
+        <v>354.6908600059914</v>
       </c>
       <c r="X25" t="n">
-        <v>506.7814158330672</v>
+        <v>354.6908600059914</v>
       </c>
       <c r="Y25" t="n">
-        <v>506.7814158330672</v>
+        <v>133.8982808624613</v>
       </c>
     </row>
     <row r="26">
@@ -6205,34 +6205,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155897</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805486</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6250,22 +6250,22 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6293,19 +6293,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
         <v>674.428562457161</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765191</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706323</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336716</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C31" t="n">
         <v>97.21709146028584</v>
@@ -6663,10 +6663,10 @@
         <v>441.9005583181194</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6697,7 +6697,7 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
@@ -6709,43 +6709,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6767,19 +6767,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
         <v>674.428562457161</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6919,49 +6919,49 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7004,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>675.0071030383447</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324578</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="W37" t="n">
-        <v>130.9054447954972</v>
+        <v>531.1091870201135</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>303.1196361220962</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7168,10 +7168,10 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,19 +7241,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
         <v>674.428562457161</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
@@ -7362,22 +7362,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765191</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7636,49 +7636,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1387.841167119728</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1387.841167119728</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>1387.841167119728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747218</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.337678916511</v>
       </c>
       <c r="O12" t="n">
-        <v>52.49733361305221</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9251,10 +9251,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165111</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928316</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445216</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>43.86969556065119</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23475,10 +23475,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>82.59558008328469</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>79.43092547709092</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>171.7613411396968</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y22" t="n">
-        <v>14.74113413690259</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>130.9324435904742</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>124.1416623340141</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>30.90698584635112</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>103.0576765518767</v>
+        <v>51.71984429840978</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.393833183385</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>192.3581855871779</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>14.74113413690259</v>
       </c>
     </row>
     <row r="38">
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>82.39383318338528</v>
+        <v>79.43092547709088</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>154.2427457127102</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>671878.3395195371</v>
+        <v>671878.3395195369</v>
       </c>
     </row>
     <row r="6">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
+        <v>738937.5928778549</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778547</v>
       </c>
-      <c r="D2" t="n">
-        <v>738937.5928778545</v>
-      </c>
       <c r="E2" t="n">
+        <v>703852.3075278759</v>
+      </c>
+      <c r="F2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="G2" t="n">
         <v>703852.307527876</v>
       </c>
-      <c r="F2" t="n">
-        <v>703852.3075278755</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="I2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="J2" t="n">
         <v>703852.3075278761</v>
-      </c>
-      <c r="H2" t="n">
-        <v>703852.3075278759</v>
-      </c>
-      <c r="I2" t="n">
-        <v>703852.3075278763</v>
-      </c>
-      <c r="J2" t="n">
-        <v>703852.307527876</v>
       </c>
       <c r="K2" t="n">
         <v>703852.3075278758</v>
@@ -26346,13 +26346,13 @@
         <v>703852.3075278759</v>
       </c>
       <c r="M2" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="N2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="O2" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="P2" t="n">
         <v>703852.3075278759</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768966</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338373</v>
@@ -26426,40 +26426,40 @@
         <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007442</v>
+        <v>7916.73165600741</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007414</v>
+        <v>7916.731656007396</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007436</v>
+        <v>7916.731656007395</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007396</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007401</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="K4" t="n">
         <v>7916.73165600748</v>
       </c>
       <c r="L4" t="n">
+        <v>7916.731656007481</v>
+      </c>
+      <c r="M4" t="n">
         <v>7916.73165600748</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
         <v>7916.73165600748</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007414</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.73165600748</v>
+        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26484,13 +26484,13 @@
         <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26499,19 +26499,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="M5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-81806.41311602</v>
+        <v>-81806.41311602012</v>
       </c>
       <c r="C6" t="n">
-        <v>508161.4660985245</v>
+        <v>508161.4660985247</v>
       </c>
       <c r="D6" t="n">
-        <v>508161.4660985242</v>
+        <v>508161.4660985246</v>
       </c>
       <c r="E6" t="n">
-        <v>77813.62218653387</v>
+        <v>78690.75432028303</v>
       </c>
       <c r="F6" t="n">
-        <v>602973.6586634298</v>
+        <v>603850.7907971796</v>
       </c>
       <c r="G6" t="n">
-        <v>602973.6586634304</v>
+        <v>603850.7907971798</v>
       </c>
       <c r="H6" t="n">
-        <v>602973.6586634301</v>
+        <v>603850.7907971796</v>
       </c>
       <c r="I6" t="n">
-        <v>602973.6586634306</v>
+        <v>603850.7907971798</v>
       </c>
       <c r="J6" t="n">
-        <v>426550.4394708374</v>
+        <v>427427.5716045871</v>
       </c>
       <c r="K6" t="n">
-        <v>602973.65866343</v>
+        <v>603850.7907971796</v>
       </c>
       <c r="L6" t="n">
-        <v>602973.6586634301</v>
+        <v>603850.7907971797</v>
       </c>
       <c r="M6" t="n">
-        <v>468172.6434295931</v>
+        <v>469049.7755633423</v>
       </c>
       <c r="N6" t="n">
-        <v>602973.6586634303</v>
+        <v>603850.7907971797</v>
       </c>
       <c r="O6" t="n">
-        <v>602973.6586634303</v>
+        <v>603850.7907971798</v>
       </c>
       <c r="P6" t="n">
-        <v>602973.6586634303</v>
+        <v>603850.7907971797</v>
       </c>
     </row>
   </sheetData>
@@ -26724,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26740,22 +26740,22 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
@@ -26776,10 +26776,10 @@
         <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253574</v>
@@ -26804,13 +26804,13 @@
         <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26828,7 +26828,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370141</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990182</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545551</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990179</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>40.22220440494942</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>207.5320066640006</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.3232009322009</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>262.2882478172473</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>14.658852728006</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>14.65885272800609</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.932676241267473e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
         <v>34.18755300444946</v>
@@ -31773,13 +31773,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647497</v>
@@ -31794,7 +31794,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31849,7 +31849,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
         <v>464.5362854813463</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
         <v>45.03122946298631</v>
@@ -31922,10 +31922,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
         <v>234.725964217132</v>
@@ -31934,7 +31934,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,13 +31946,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
         <v>34.18755300444946</v>
@@ -32247,13 +32247,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647497</v>
@@ -32268,7 +32268,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32323,7 +32323,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813463</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
         <v>45.03122946298631</v>
@@ -32396,10 +32396,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
         <v>234.725964217132</v>
@@ -32408,7 +32408,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,13 +32420,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32484,13 +32484,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647497</v>
@@ -32505,7 +32505,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32560,7 +32560,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813463</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
         <v>45.03122946298631</v>
@@ -32633,10 +32633,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
@@ -32645,7 +32645,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,13 +32657,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535713</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
@@ -35421,19 +35421,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O12" t="n">
-        <v>334.8610358541604</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056037</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35895,19 +35895,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879393</v>
@@ -35971,19 +35971,19 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N18" t="n">
-        <v>756.532252314524</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056037</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36132,19 +36132,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005179</v>
@@ -36211,16 +36211,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N32" t="n">
         <v>803.580930408112</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N35" t="n">
         <v>803.580930408112</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
